--- a/predict/2023/saved/week1.xlsx
+++ b/predict/2023/saved/week1.xlsx
@@ -67,705 +67,708 @@
     <t>11.4</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>88.6</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Jackson St</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [Jackson St], Calculate() - [DIVISION 1 FBS] team playing [?] team, UTEP wins</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>63.1</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>61.9</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>79.9</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>75.5</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Elon</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Elon], Calculate() - [?] team playing [DIVISION 1 FBS] team, Wake Forest wins</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>88.6</t>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Rhode Island], Calculate() - [?] team playing [DIVISION 1 FBS] team, Georgia wins</t>
+  </si>
+  <si>
+    <t>St Francis PA</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [St Francis PA], Calculate() - [?] team playing [DIVISION 1 FBS] team, Northwestern wins</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [South Dakota], Calculate() - [?] team playing [DIVISION 1 FBS] team, Missouri wins</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>65.1</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>34.9</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>74.6</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>25.4</t>
+  </si>
+  <si>
+    <t>Southern Utah</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Southern Utah], Calculate() - [?] team playing [DIVISION 1 FBS] team, Arizona wins</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>E Illinois</t>
+  </si>
+  <si>
+    <t>Warning: cannot predict, both teams missing, fix the merge spreadsheets</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>C Michigan</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Miami OH</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>51.2</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>48.8</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>2023-09-02</t>
+  </si>
+  <si>
+    <t>UT Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [UT Martin], Calculate() - [?] team playing [DIVISION 1 FBS] team, Georgia wins</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>East Carolina</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>100.0</t>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>98.4</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>91.4</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>96.2</t>
+  </si>
+  <si>
+    <t>Portland St</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Portland St], Calculate() - [?] team playing [DIVISION 1 FBS] team, Oregon wins</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>UTEP</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Jackson St</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [Jackson St], Calculate() - [DIVISION 1 FBS] team playing [?] team, UTEP wins</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>MASS</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>36.9</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>63.1</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>61.9</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>79.9</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2023-08-31</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>75.5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Elon</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Elon], Calculate() - [?] team playing [DIVISION 1 FBS] team, Wake Forest wins</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Kent State</t>
-  </si>
-  <si>
-    <t>KENT</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Rhode Island], Calculate() - [?] team playing [DIVISION 1 FBS] team, Georgia wins</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>St Francis PA</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [St Francis PA], Calculate() - [?] team playing [DIVISION 1 FBS] team, Northwestern wins</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>UConn</t>
-  </si>
-  <si>
-    <t>CONN</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [South Dakota], Calculate() - [?] team playing [DIVISION 1 FBS] team, Missouri wins</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>65.1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>34.9</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>74.6</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>25.4</t>
-  </si>
-  <si>
-    <t>Southern Utah</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Southern Utah], Calculate() - [?] team playing [DIVISION 1 FBS] team, Arizona wins</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>E Illinois</t>
-  </si>
-  <si>
-    <t>Warning: cannot predict, both teams missing, fix the merge spreadsheets</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>C Michigan</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Miami OH</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>51.2</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>48.8</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>2023-09-02</t>
-  </si>
-  <si>
-    <t>UT Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [UT Martin], Calculate() - [?] team playing [DIVISION 1 FBS] team, Georgia wins</t>
-  </si>
-  <si>
-    <t>East Carolina</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>OSU</t>
-  </si>
-  <si>
-    <t>98.4</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>NEV</t>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [South Dakota], Calculate() - [?] team playing [DIVISION 1 FBS] team, Kansas wins</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>83.5</t>
+  </si>
+  <si>
+    <t>Merrimack</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Merrimack], Calculate() - [?] team playing [DIVISION 1 FBS] team, Ole Miss wins</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>Penn State</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>91.4</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>96.2</t>
-  </si>
-  <si>
-    <t>Portland St</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Portland St], Calculate() - [?] team playing [DIVISION 1 FBS] team, Oregon wins</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [South Dakota], Calculate() - [?] team playing [DIVISION 1 FBS] team, Kansas wins</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>83.5</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Merrimack</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Merrimack], Calculate() - [?] team playing [DIVISION 1 FBS] team, Ole Miss wins</t>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>SMU</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>South Alabama</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Utah State</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Ball State</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Bowling Green</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
     <t>Northern Iowa</t>
   </si>
   <si>
@@ -776,9 +779,6 @@
   </si>
   <si>
     <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Northern Iowa], Calculate() - [?] team playing [DIVISION 1 FBS] team, Houston wins</t>
-  </si>
-  <si>
-    <t>50</t>
   </si>
   <si>
     <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Rhode Island], Calculate() - [?] team playing [DIVISION 1 FBS] team, Ohio wins</t>
@@ -1807,162 +1807,162 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>16.097</v>
       </c>
       <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
         <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
       </c>
       <c r="G6">
         <v>4.297</v>
       </c>
       <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
       </c>
       <c r="G7">
         <v>-4.103</v>
       </c>
       <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>57</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
       </c>
       <c r="G8">
         <v>10.797</v>
       </c>
       <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
         <v>64</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>65</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
       </c>
       <c r="G9">
         <v>9.696999999999999</v>
       </c>
       <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
         <v>72</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>73</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>74</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1970,7 +1970,7 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>76</v>
@@ -2005,7 +2005,7 @@
         <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>81</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -2055,10 +2055,10 @@
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
@@ -2067,15 +2067,15 @@
         <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>90</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>94</v>
@@ -2137,15 +2137,15 @@
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>99</v>
@@ -2154,10 +2154,10 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="G15">
         <v>4.297</v>
@@ -2169,36 +2169,36 @@
         <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
         <v>103</v>
       </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
         <v>104</v>
       </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>105</v>
-      </c>
-      <c r="I16" t="s">
-        <v>106</v>
       </c>
       <c r="J16" t="s">
         <v>32</v>
@@ -2207,50 +2207,50 @@
         <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>108</v>
       </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>109</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>110</v>
       </c>
-      <c r="E17" t="s">
-        <v>111</v>
-      </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G17">
         <v>-5.603</v>
       </c>
       <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" t="s">
         <v>113</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>114</v>
-      </c>
-      <c r="J17" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>116</v>
@@ -2262,7 +2262,7 @@
         <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G18">
         <v>-8.603</v>
@@ -2277,15 +2277,15 @@
         <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
         <v>121</v>
@@ -2317,48 +2317,48 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
         <v>125</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>127</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" t="s">
         <v>128</v>
       </c>
-      <c r="F20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" t="s">
         <v>129</v>
-      </c>
-      <c r="J20" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
         <v>131</v>
       </c>
-      <c r="B21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>133</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -2370,65 +2370,65 @@
         <v>35.097</v>
       </c>
       <c r="H21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" t="s">
         <v>134</v>
-      </c>
-      <c r="I21" t="s">
-        <v>135</v>
       </c>
       <c r="J21" t="s">
         <v>28</v>
       </c>
       <c r="K21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
         <v>137</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>138</v>
       </c>
-      <c r="E22" t="s">
-        <v>139</v>
-      </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>13.197</v>
       </c>
       <c r="H22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" t="s">
         <v>140</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>141</v>
       </c>
-      <c r="J22" t="s">
-        <v>142</v>
-      </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
         <v>143</v>
       </c>
-      <c r="B23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>144</v>
-      </c>
-      <c r="D23" t="s">
-        <v>145</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
@@ -2440,97 +2440,97 @@
         <v>35.297</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s">
         <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
         <v>105</v>
       </c>
-      <c r="D24" t="s">
-        <v>106</v>
-      </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G24">
         <v>-1.003</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="G25">
         <v>0.097</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K25" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
@@ -2542,10 +2542,10 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
         <v>32</v>
@@ -2554,21 +2554,21 @@
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
         <v>156</v>
       </c>
-      <c r="C27" t="s">
-        <v>159</v>
-      </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
@@ -2580,65 +2580,65 @@
         <v>51.197</v>
       </c>
       <c r="H27" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" t="s">
         <v>134</v>
-      </c>
-      <c r="I27" t="s">
-        <v>135</v>
       </c>
       <c r="J27" t="s">
         <v>28</v>
       </c>
       <c r="K27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
         <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
       </c>
       <c r="G28">
         <v>-19.403</v>
       </c>
       <c r="H28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" t="s">
         <v>165</v>
       </c>
-      <c r="I28" t="s">
-        <v>166</v>
-      </c>
-      <c r="J28" t="s">
-        <v>167</v>
-      </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E29" t="s">
         <v>24</v>
@@ -2650,36 +2650,36 @@
         <v>48.197</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J29" t="s">
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" t="s">
         <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" t="s">
-        <v>174</v>
       </c>
       <c r="E30" t="s">
         <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>39.897</v>
@@ -2694,167 +2694,167 @@
         <v>28</v>
       </c>
       <c r="K30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" t="s">
         <v>176</v>
-      </c>
-      <c r="B31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" t="s">
-        <v>178</v>
       </c>
       <c r="E31" t="s">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="G31">
         <v>21.297</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
       </c>
       <c r="K31" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" t="s">
         <v>181</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>182</v>
       </c>
-      <c r="E32" t="s">
-        <v>183</v>
-      </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G32">
         <v>-17.103</v>
       </c>
       <c r="H32" t="s">
+        <v>183</v>
+      </c>
+      <c r="I32" t="s">
         <v>184</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>185</v>
       </c>
-      <c r="J32" t="s">
-        <v>186</v>
-      </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s">
         <v>187</v>
-      </c>
-      <c r="D33" t="s">
-        <v>188</v>
       </c>
       <c r="E33" t="s">
         <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>36.597</v>
       </c>
       <c r="H33" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" t="s">
         <v>189</v>
-      </c>
-      <c r="I33" t="s">
-        <v>190</v>
       </c>
       <c r="J33" t="s">
         <v>28</v>
       </c>
       <c r="K33" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" t="s">
         <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" t="s">
-        <v>194</v>
       </c>
       <c r="E34" t="s">
         <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>32.497</v>
       </c>
       <c r="H34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J34" t="s">
         <v>28</v>
       </c>
       <c r="K34" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
         <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>18.297</v>
@@ -2869,15 +2869,15 @@
         <v>198</v>
       </c>
       <c r="K35" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C36" t="s">
         <v>199</v>
@@ -2909,13 +2909,13 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
@@ -2927,10 +2927,10 @@
         <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J37" t="s">
         <v>32</v>
@@ -2939,56 +2939,56 @@
         <v>25</v>
       </c>
       <c r="L37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="G38">
         <v>17.997</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K38" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
         <v>24</v>
@@ -3000,36 +3000,36 @@
         <v>33.597</v>
       </c>
       <c r="H39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J39" t="s">
         <v>28</v>
       </c>
       <c r="K39" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
         <v>109</v>
-      </c>
-      <c r="D40" t="s">
-        <v>110</v>
       </c>
       <c r="E40" t="s">
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="G40">
         <v>29.197</v>
@@ -3044,15 +3044,15 @@
         <v>28</v>
       </c>
       <c r="K40" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
         <v>116</v>
@@ -3064,7 +3064,7 @@
         <v>216</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G41">
         <v>13.697</v>
@@ -3079,33 +3079,33 @@
         <v>219</v>
       </c>
       <c r="K41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
         <v>220</v>
       </c>
-      <c r="B42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
         <v>221</v>
       </c>
-      <c r="E42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>222</v>
-      </c>
-      <c r="I42" t="s">
-        <v>223</v>
       </c>
       <c r="J42" t="s">
         <v>32</v>
@@ -3114,21 +3114,21 @@
         <v>25</v>
       </c>
       <c r="L42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
         <v>39</v>
-      </c>
-      <c r="D43" t="s">
-        <v>40</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
@@ -3140,24 +3140,24 @@
         <v>51.397</v>
       </c>
       <c r="H43" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43" t="s">
         <v>189</v>
-      </c>
-      <c r="I43" t="s">
-        <v>190</v>
       </c>
       <c r="J43" t="s">
         <v>28</v>
       </c>
       <c r="K43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
         <v>226</v>
@@ -3166,25 +3166,25 @@
         <v>227</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="G44">
         <v>-13.003</v>
       </c>
       <c r="H44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K44" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3192,7 +3192,7 @@
         <v>228</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
         <v>229</v>
@@ -3204,7 +3204,7 @@
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>25.897</v>
@@ -3219,7 +3219,7 @@
         <v>28</v>
       </c>
       <c r="K45" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3227,7 +3227,7 @@
         <v>233</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
         <v>234</v>
@@ -3239,7 +3239,7 @@
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>25.097</v>
@@ -3254,7 +3254,7 @@
         <v>28</v>
       </c>
       <c r="K46" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3262,7 +3262,7 @@
         <v>238</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C47" t="s">
         <v>239</v>
@@ -3271,10 +3271,10 @@
         <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G47">
         <v>12.797</v>
@@ -3286,10 +3286,10 @@
         <v>242</v>
       </c>
       <c r="J47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3297,7 +3297,7 @@
         <v>243</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
         <v>244</v>
@@ -3306,7 +3306,7 @@
         <v>245</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -3321,10 +3321,10 @@
         <v>247</v>
       </c>
       <c r="J48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K48" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3332,19 +3332,19 @@
         <v>248</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
         <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="G49">
         <v>20.197</v>
@@ -3359,18 +3359,18 @@
         <v>28</v>
       </c>
       <c r="K49" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E50" t="s">
         <v>25</v>
@@ -3382,10 +3382,10 @@
         <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J50" t="s">
         <v>32</v>
@@ -3394,18 +3394,18 @@
         <v>25</v>
       </c>
       <c r="L50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E51" t="s">
         <v>25</v>
@@ -3417,10 +3417,10 @@
         <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J51" t="s">
         <v>32</v>
@@ -3437,7 +3437,7 @@
         <v>256</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
         <v>257</v>
@@ -3452,10 +3452,10 @@
         <v>25</v>
       </c>
       <c r="H52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" t="s">
         <v>109</v>
-      </c>
-      <c r="I52" t="s">
-        <v>110</v>
       </c>
       <c r="J52" t="s">
         <v>32</v>
@@ -3472,7 +3472,7 @@
         <v>259</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
         <v>260</v>
@@ -3507,31 +3507,31 @@
         <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
         <v>265</v>
       </c>
       <c r="E54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H54" t="s">
         <v>33</v>
       </c>
       <c r="J54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3539,10 +3539,10 @@
         <v>266</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E55" t="s">
         <v>25</v>
@@ -3574,7 +3574,7 @@
         <v>270</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
         <v>271</v>
@@ -3586,7 +3586,7 @@
         <v>273</v>
       </c>
       <c r="F56" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="G56">
         <v>6.097</v>
@@ -3601,7 +3601,7 @@
         <v>276</v>
       </c>
       <c r="K56" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3609,7 +3609,7 @@
         <v>277</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
         <v>36</v>
@@ -3636,7 +3636,7 @@
         <v>28</v>
       </c>
       <c r="K57" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3644,7 +3644,7 @@
         <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
         <v>281</v>
@@ -3679,7 +3679,7 @@
         <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
         <v>286</v>
@@ -3691,7 +3691,7 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G59">
         <v>15.797</v>
@@ -3706,7 +3706,7 @@
         <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3714,7 +3714,7 @@
         <v>288</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
         <v>289</v>
@@ -3749,7 +3749,7 @@
         <v>293</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
         <v>294</v>
@@ -3784,7 +3784,7 @@
         <v>298</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
         <v>299</v>
@@ -3819,7 +3819,7 @@
         <v>303</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
         <v>304</v>
@@ -3834,10 +3834,10 @@
         <v>25</v>
       </c>
       <c r="H63" t="s">
+        <v>221</v>
+      </c>
+      <c r="I63" t="s">
         <v>222</v>
-      </c>
-      <c r="I63" t="s">
-        <v>223</v>
       </c>
       <c r="J63" t="s">
         <v>32</v>
@@ -3854,7 +3854,7 @@
         <v>306</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C64" t="s">
         <v>307</v>
@@ -3863,10 +3863,10 @@
         <v>308</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F64" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="G64">
         <v>-5.403</v>
@@ -3878,10 +3878,10 @@
         <v>310</v>
       </c>
       <c r="J64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K64" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3889,7 +3889,7 @@
         <v>311</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
         <v>312</v>
@@ -3924,7 +3924,7 @@
         <v>316</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C66" t="s">
         <v>317</v>
@@ -3959,7 +3959,7 @@
         <v>320</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
         <v>217</v>
@@ -3986,7 +3986,7 @@
         <v>24</v>
       </c>
       <c r="K67" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3994,7 +3994,7 @@
         <v>323</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
         <v>324</v>
@@ -4009,10 +4009,10 @@
         <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J68" t="s">
         <v>32</v>
@@ -4029,7 +4029,7 @@
         <v>326</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
         <v>327</v>
@@ -4044,10 +4044,10 @@
         <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s">
         <v>32</v>
@@ -4064,7 +4064,7 @@
         <v>329</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
         <v>330</v>
@@ -4099,19 +4099,19 @@
         <v>334</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
         <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="G71">
         <v>-29.403</v>
@@ -4126,7 +4126,7 @@
         <v>24</v>
       </c>
       <c r="K71" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4134,7 +4134,7 @@
         <v>337</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
         <v>338</v>
@@ -4149,10 +4149,10 @@
         <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J72" t="s">
         <v>32</v>
@@ -4169,7 +4169,7 @@
         <v>340</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
         <v>341</v>
@@ -4181,7 +4181,7 @@
         <v>343</v>
       </c>
       <c r="F73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G73">
         <v>-11.603</v>
@@ -4196,7 +4196,7 @@
         <v>346</v>
       </c>
       <c r="K73" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4204,7 +4204,7 @@
         <v>347</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
         <v>348</v>
@@ -4219,10 +4219,10 @@
         <v>25</v>
       </c>
       <c r="H74" t="s">
+        <v>63</v>
+      </c>
+      <c r="I74" t="s">
         <v>64</v>
-      </c>
-      <c r="I74" t="s">
-        <v>65</v>
       </c>
       <c r="J74" t="s">
         <v>32</v>
@@ -4239,34 +4239,34 @@
         <v>350</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" t="s">
         <v>184</v>
-      </c>
-      <c r="D75" t="s">
-        <v>185</v>
       </c>
       <c r="E75" t="s">
         <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="G75">
         <v>23.197</v>
       </c>
       <c r="H75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J75" t="s">
         <v>28</v>
       </c>
       <c r="K75" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4274,7 +4274,7 @@
         <v>351</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
         <v>352</v>
@@ -4286,7 +4286,7 @@
         <v>354</v>
       </c>
       <c r="F76" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="G76">
         <v>12.397</v>
@@ -4301,7 +4301,7 @@
         <v>357</v>
       </c>
       <c r="K76" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4309,7 +4309,7 @@
         <v>358</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
         <v>359</v>
@@ -4318,25 +4318,25 @@
         <v>359</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="G77">
         <v>-0.803</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K77" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4344,7 +4344,7 @@
         <v>360</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
         <v>361</v>
@@ -4379,7 +4379,7 @@
         <v>363</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C79" t="s">
         <v>364</v>
@@ -4414,31 +4414,31 @@
         <v>368</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
         <v>369</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H80" t="s">
         <v>370</v>
       </c>
       <c r="J80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4446,7 +4446,7 @@
         <v>371</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s">
         <v>372</v>
@@ -4481,7 +4481,7 @@
         <v>376</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
         <v>377</v>
@@ -4493,7 +4493,7 @@
         <v>379</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G82">
         <v>11.997</v>
@@ -4508,7 +4508,7 @@
         <v>382</v>
       </c>
       <c r="K82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4516,7 +4516,7 @@
         <v>383</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C83" t="s">
         <v>384</v>
@@ -4528,22 +4528,22 @@
         <v>379</v>
       </c>
       <c r="F83" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="G83">
         <v>11.997</v>
       </c>
       <c r="H83" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I83" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J83" t="s">
         <v>382</v>
       </c>
       <c r="K83" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4551,7 +4551,7 @@
         <v>386</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -4563,22 +4563,22 @@
         <v>387</v>
       </c>
       <c r="F84" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="G84">
         <v>-3.403</v>
       </c>
       <c r="H84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J84" t="s">
         <v>388</v>
       </c>
       <c r="K84" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4586,7 +4586,7 @@
         <v>389</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C85" t="s">
         <v>390</v>
@@ -4598,7 +4598,7 @@
         <v>392</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="G85">
         <v>1.697</v>
@@ -4613,7 +4613,7 @@
         <v>395</v>
       </c>
       <c r="K85" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4621,7 +4621,7 @@
         <v>396</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
         <v>397</v>
@@ -4636,10 +4636,10 @@
         <v>25</v>
       </c>
       <c r="H86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" t="s">
         <v>39</v>
-      </c>
-      <c r="I86" t="s">
-        <v>40</v>
       </c>
       <c r="J86" t="s">
         <v>32</v>
@@ -4656,7 +4656,7 @@
         <v>399</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s">
         <v>400</v>
@@ -4691,10 +4691,10 @@
         <v>402</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C88" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E88" t="s">
         <v>25</v>
@@ -4726,7 +4726,7 @@
         <v>404</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C89" t="s">
         <v>405</v>
@@ -4738,7 +4738,7 @@
         <v>24</v>
       </c>
       <c r="F89" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G89">
         <v>22.997</v>
@@ -4753,7 +4753,7 @@
         <v>28</v>
       </c>
       <c r="K89" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4761,7 +4761,7 @@
         <v>408</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C90" t="s">
         <v>409</v>
@@ -4773,7 +4773,7 @@
         <v>24</v>
       </c>
       <c r="F90" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G90">
         <v>20.497</v>
@@ -4788,7 +4788,7 @@
         <v>28</v>
       </c>
       <c r="K90" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4796,7 +4796,7 @@
         <v>412</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s">
         <v>413</v>
@@ -4811,10 +4811,10 @@
         <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J91" t="s">
         <v>32</v>
@@ -4843,22 +4843,22 @@
         <v>418</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="G92">
         <v>-7.503</v>
       </c>
       <c r="H92" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I92" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J92" t="s">
         <v>419</v>
       </c>
       <c r="K92" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4878,7 +4878,7 @@
         <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G93">
         <v>-21.603</v>
@@ -4893,7 +4893,7 @@
         <v>24</v>
       </c>
       <c r="K93" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4913,7 +4913,7 @@
         <v>422</v>
       </c>
       <c r="F94" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="G94">
         <v>4.897</v>
@@ -4928,7 +4928,7 @@
         <v>425</v>
       </c>
       <c r="K94" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4945,10 +4945,10 @@
         <v>429</v>
       </c>
       <c r="E95" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G95">
         <v>-0.003</v>
@@ -4960,10 +4960,10 @@
         <v>431</v>
       </c>
       <c r="J95" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K95" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
